--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0180 - Sales Mengakses Menu Report - Menu Product Holding Ratio - Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0180 - Sales Mengakses Menu Report - Menu Product Holding Ratio - Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AFF445-8884-4E9A-8FA9-3A6222749083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62FC425-8D1D-447E-9A27-4F28C551728B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -111,6 +111,12 @@
  - Berhasil menampilkan data sesuai dengan keyword yang di tentukan
  - Berhasil meng-export data sesuai dengan keyword yang di tentukan
  - Excel sesuai dengan format yangdi lampirkan pada BSDD</t>
+  </si>
+  <si>
+    <t>TEXT4</t>
+  </si>
+  <si>
+    <t>TEXT5</t>
   </si>
 </sst>
 </file>
@@ -505,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,9 +530,8 @@
     <col min="11" max="11" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" customWidth="1"/>
-    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -575,6 +580,12 @@
         <v>17</v>
       </c>
       <c r="O1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -617,11 +628,10 @@
       <c r="N2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="8"/>
+      <c r="Q2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
     </row>

--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0180 - Sales Mengakses Menu Report - Menu Product Holding Ratio - Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0180 - Sales Mengakses Menu Report - Menu Product Holding Ratio - Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62FC425-8D1D-447E-9A27-4F28C551728B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5465F4-B4BF-4694-A241-F2EB94C55D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCD0180" sheetId="2" r:id="rId1"/>
@@ -98,15 +98,6 @@
     <t>Sales mengakses menu: Report Menu - Product Holding Ratio - Report</t>
   </si>
   <si>
-    <t>1. Login digisales portal dengan sales 39798
-2. Buka menu product holding
-3. Isi field npp sales sendiri dengan 39798, dengan field bulan februari 2022 (karena hanya ada data ini)
-4. Klik generate
-5. Data muncul
-7. Klik export file, pilih salah jenis xls atau xlsx
-8. Data report excel berhasil terdownload dan dapat dilihat</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - NPP akan muncul secara otomatis oleh system berdasarkan user login sales tersebut
  - Berhasil menampilkan data sesuai dengan keyword yang di tentukan
  - Berhasil meng-export data sesuai dengan keyword yang di tentukan
@@ -117,6 +108,15 @@
   </si>
   <si>
     <t>TEXT5</t>
+  </si>
+  <si>
+    <t>1. login digisales portal dengan sales 39798
+2. buka menu product holding
+3. isi field npp sales sendiri dengan 39798, dengan field bulan februari 2022 (karena hanya ada data ini)
+4. klik generate
+5. data muncul
+7. klik export file, pilih salah jenis xls atau xlsx
+8. data report excel berhasil terdownload dan dapat dilihat</t>
   </si>
 </sst>
 </file>
@@ -511,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,10 +580,10 @@
         <v>17</v>
       </c>
       <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
         <v>24</v>
-      </c>
-      <c r="P1" t="s">
-        <v>25</v>
       </c>
       <c r="Q1" t="s">
         <v>14</v>
@@ -600,10 +600,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="F2" s="10">
         <v>39798</v>
